--- a/data/statistic_results/summary_results.xlsx
+++ b/data/statistic_results/summary_results.xlsx
@@ -468,17 +468,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>75.65%</t>
+          <t>84.78%</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>6.96%</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>24.35%</t>
+          <t>8.26%</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -493,21 +493,21 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>72.89%</t>
+          <t>83.65%</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>7.11%</t>
+          <t>11.61%</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20.00%</t>
+          <t>4.74%</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>450</v>
+        <v>422</v>
       </c>
     </row>
     <row r="4">
@@ -518,21 +518,21 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>82.05%</t>
+          <t>88.63%</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.84%</t>
+          <t>7.47%</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>17.12%</t>
+          <t>3.89%</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>958</v>
+        <v>950</v>
       </c>
     </row>
     <row r="5">
@@ -543,17 +543,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>77.82%</t>
+          <t>90.85%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>5.51%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>22.18%</t>
+          <t>3.63%</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -568,21 +568,21 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>71.64%</t>
+          <t>83.36%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.84%</t>
+          <t>8.24%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>27.52%</t>
+          <t>8.40%</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="7">
@@ -593,21 +593,21 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>70.11%</t>
+          <t>83.92%</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2.25%</t>
+          <t>8.98%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>27.64%</t>
+          <t>7.10%</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>977</v>
+        <v>958</v>
       </c>
     </row>
     <row r="8">
@@ -618,17 +618,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>82.40%</t>
+          <t>90.22%</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>4.75%</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>17.60%</t>
+          <t>5.03%</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -643,17 +643,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>80.65%</t>
+          <t>93.87%</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>2.58%</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>19.35%</t>
+          <t>3.55%</t>
         </is>
       </c>
       <c r="E9" t="n">
